--- a/test/src/main/webapp/WEB-INF/엑셀ㅇ.xlsx
+++ b/test/src/main/webapp/WEB-INF/엑셀ㅇ.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmh\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,169 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
   <si>
     <t>프로젝트 데이터(project)</t>
   </si>
   <si>
-    <t>프로젝트 번호</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-  </si>
-  <si>
     <t>프로젝트 고객사</t>
   </si>
   <si>
-    <t>custcimpany_id</t>
-  </si>
-  <si>
     <t>프로젝트 이름</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-  </si>
-  <si>
     <t>프로젝트 시작일</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>프로젝트 종료일</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>프로젝트 필요 기술</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
     <t>회원데이터(member)</t>
   </si>
   <si>
-    <t>회원 번호</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
     <t>회원 이미지</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>회원 주민번호</t>
-  </si>
-  <si>
-    <t>jumin</t>
-  </si>
-  <si>
-    <t>varchar2(14)</t>
-  </si>
-  <si>
-    <t>회원 생년월일</t>
-  </si>
-  <si>
-    <t>bir</t>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-  </si>
-  <si>
     <t>회원 성별코드</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>회원 직급코드</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
     <t>회원 전화번호</t>
   </si>
   <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>회원 이메일</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>회원 주소</t>
-  </si>
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>회원 사용기술</t>
-  </si>
-  <si>
-    <t>회원 등급코드</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
     <t>회원 입사일</t>
   </si>
   <si>
-    <t>startdate</t>
-  </si>
-  <si>
-    <t>date default sysdate</t>
-  </si>
-  <si>
     <t>회원 퇴사일</t>
-  </si>
-  <si>
-    <t>enddate</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>project_id</t>
-  </si>
-  <si>
-    <t>참여시작일</t>
-  </si>
-  <si>
-    <t>참여철수일</t>
-  </si>
-  <si>
-    <t>프로젝트 Role</t>
-  </si>
-  <si>
-    <t>role</t>
   </si>
   <si>
     <t>회원 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>코드마스터 데이터</t>
   </si>
   <si>
@@ -353,6 +231,137 @@
   </si>
   <si>
     <t>1: N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 이이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 언어 기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 데이터베이스 기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+  </si>
+  <si>
+    <t>MEMBER_NAME</t>
+  </si>
+  <si>
+    <t>MEMBER_POSITION</t>
+  </si>
+  <si>
+    <t>MEMBER_SEX</t>
+  </si>
+  <si>
+    <t>MEMBER_IMG</t>
+  </si>
+  <si>
+    <t>MEMBER_TEL</t>
+  </si>
+  <si>
+    <t>MEMBER_SKILL_LANGUAGE</t>
+  </si>
+  <si>
+    <t>MEMBER_SKILL_DB</t>
+  </si>
+  <si>
+    <t>MEMBER_STARTDATE</t>
+  </si>
+  <si>
+    <t>MEMBER_ENDDATE</t>
+  </si>
+  <si>
+    <t>MEMBER_NO</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(100 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(200 BYTE)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>회원 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
+    <t>PROJECT_SKILL_LANGUAGE</t>
+  </si>
+  <si>
+    <t>PROJECT_SKILL_DB</t>
+  </si>
+  <si>
+    <t>PROJECT_STARTDATE</t>
+  </si>
+  <si>
+    <t>PROJECT_ENDDATE</t>
+  </si>
+  <si>
+    <t>PROJECT_NAME</t>
+  </si>
+  <si>
+    <t>회원 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 언어 기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 데이터베이스 기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 시작일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 종료일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOM_COMPANY_ID</t>
+  </si>
+  <si>
+    <t>PROJECT_NO</t>
+  </si>
+  <si>
+    <t>프로젝트 언어 기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +407,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,17 +431,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -572,14 +584,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,51 +669,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,37 +678,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,819 +1350,837 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="21.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.58203125" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" customWidth="1"/>
+    <col min="11" max="11" width="21.8984375" customWidth="1"/>
+    <col min="12" max="12" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="Q4" s="25" t="s">
+    <row r="4" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="Q5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="Q6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="14">
+        <v>1</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="14">
+        <v>2</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="Q11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C13" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="J13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="J14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="J15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="J17" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="J18" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="14">
+        <v>1</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="14">
+        <v>2</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="19"/>
+      <c r="Q20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="14">
+        <v>1</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+    </row>
+    <row r="21" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22"/>
+      <c r="Q21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="14">
+        <v>2</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+    </row>
+    <row r="22" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="14">
+        <v>3</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="14">
+        <v>4</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="14">
+        <v>5</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="14">
+        <v>6</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="14">
+        <v>7</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C27" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="14">
+        <v>8</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C28" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="14">
+        <v>1</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C29" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="14">
+        <v>2</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C30" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="14">
+        <v>3</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C31" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="14">
+        <v>4</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C32" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" s="14">
+        <v>5</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="Q33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="14">
+        <v>6</v>
+      </c>
+      <c r="S33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-    </row>
-    <row r="5" spans="3:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="Q5" s="26" t="s">
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="Q34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" s="14">
+        <v>7</v>
+      </c>
+      <c r="S34" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="Q35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" s="14">
+        <v>1</v>
+      </c>
+      <c r="S35" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="Q36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" s="14">
+        <v>2</v>
+      </c>
+      <c r="S36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="Q37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="14">
+        <v>3</v>
+      </c>
+      <c r="S37" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="26"/>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C6" s="4" t="s">
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+    </row>
+    <row r="38" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="Q38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="14">
+        <v>4</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="S39" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="S40" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" s="14">
         <v>3</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="Q6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="27">
+      <c r="S41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q42" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="15">
         <v>1</v>
       </c>
-      <c r="T6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="27"/>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C7" s="7" t="s">
+      <c r="S42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="T42" s="15"/>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q43" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="15">
+        <v>2</v>
+      </c>
+      <c r="S43" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T43" s="15"/>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q44" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="15">
+        <v>3</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="T44" s="15"/>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q45" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="15">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="S45" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T45" s="15"/>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="Q46" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="15">
         <v>5</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="27">
-        <v>2</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="27"/>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-    </row>
-    <row r="10" spans="3:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="27" t="s">
+      <c r="S46" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-    </row>
-    <row r="11" spans="3:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="Q11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="J12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H13" s="30"/>
-      <c r="J13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="J14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="J15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="3:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q17" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="S17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" s="27">
-        <v>1</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R19" s="27">
-        <v>2</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-    </row>
-    <row r="20" spans="3:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I20" s="32"/>
-      <c r="Q20" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R20" s="27">
-        <v>1</v>
-      </c>
-      <c r="S20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-    </row>
-    <row r="21" spans="3:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-      <c r="Q21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R21" s="27">
-        <v>2</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R22" s="27">
-        <v>3</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R23" s="27">
-        <v>4</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R24" s="27">
-        <v>5</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R25" s="27">
-        <v>6</v>
-      </c>
-      <c r="S25" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R26" s="27">
-        <v>7</v>
-      </c>
-      <c r="S26" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R27" s="27">
-        <v>8</v>
-      </c>
-      <c r="S27" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="T27" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U27" s="27"/>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" s="27">
-        <v>1</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R29" s="27">
-        <v>2</v>
-      </c>
-      <c r="S29" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R30" s="27">
-        <v>3</v>
-      </c>
-      <c r="S30" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R31" s="27">
-        <v>4</v>
-      </c>
-      <c r="S31" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R32" s="27">
-        <v>5</v>
-      </c>
-      <c r="S32" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R33" s="27">
-        <v>6</v>
-      </c>
-      <c r="S33" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R34" s="27">
-        <v>7</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R35" s="27">
-        <v>1</v>
-      </c>
-      <c r="S35" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="Q36" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R36" s="27">
-        <v>2</v>
-      </c>
-      <c r="S36" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="Q37" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R37" s="27">
-        <v>3</v>
-      </c>
-      <c r="S37" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-    </row>
-    <row r="38" spans="3:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="Q38" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R38" s="27">
-        <v>4</v>
-      </c>
-      <c r="S38" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q39" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R39" s="27">
-        <v>1</v>
-      </c>
-      <c r="S39" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q40" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R40" s="27">
-        <v>2</v>
-      </c>
-      <c r="S40" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q41" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R41" s="27">
-        <v>3</v>
-      </c>
-      <c r="S41" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q42" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R42" s="28">
-        <v>1</v>
-      </c>
-      <c r="S42" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="T42" s="28"/>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q43" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R43" s="28">
-        <v>2</v>
-      </c>
-      <c r="S43" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="T43" s="28"/>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q44" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R44" s="28">
-        <v>3</v>
-      </c>
-      <c r="S44" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="T44" s="28"/>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q45" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R45" s="28">
-        <v>4</v>
-      </c>
-      <c r="S45" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="T45" s="28"/>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="Q46" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R46" s="28">
-        <v>5</v>
-      </c>
-      <c r="S46" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="T46" s="28"/>
+      <c r="T46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
